--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2035.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2035.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155795678811019</v>
+        <v>1.218464374542236</v>
       </c>
       <c r="B1">
-        <v>2.371515607163853</v>
+        <v>2.236479043960571</v>
       </c>
       <c r="C1">
-        <v>6.371031934983064</v>
+        <v>6.126449584960938</v>
       </c>
       <c r="D1">
-        <v>2.343258280653524</v>
+        <v>1.998753309249878</v>
       </c>
       <c r="E1">
-        <v>1.218132432594617</v>
+        <v>1.162059426307678</v>
       </c>
     </row>
   </sheetData>
